--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación Condominio Alto Mirador</t>
+          <t>Proyecto de integración social DS19 Nativos II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Constructora PACAL S.A</t>
+          <t>Inmobiliaria y Constructora Ecomac Sur Spa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>500</v>
+        <v>18268</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/09/2021</t>
+          <t>09/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153216190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158800120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción de Arena desde Cauce del Río Biobío - Arenera Price</t>
+          <t>Modificación Condominio Alto Mirador</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Arenera Price SpA.</t>
+          <t>Constructora PACAL S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>16/09/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150832485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153216190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Extracción de arena desde el río Biobío, sector Costanera Norte</t>
+          <t>Extracción de Arena desde Cauce del Río Biobío - Arenera Price</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Juan Carlos Sanhueza Arriagada</t>
+          <t>Arenera Price SpA.</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149562248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150832485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación Condominio Alto Mirador</t>
+          <t>Modificación Extracción de arena desde el río Biobío, sector Costanera Norte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Constructora PACAL S.A</t>
+          <t>Juan Carlos Sanhueza Arriagada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/01/2021</t>
+          <t>08/01/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149557955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149562248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos químicos industriales desde Talcahuano a la planta CFI Horcones</t>
+          <t>Modificación Condominio Alto Mirador</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacifico S. A.</t>
+          <t>Constructora PACAL S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/11/2020</t>
+          <t>07/01/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149102739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149557955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unidad de regasificación de etileno</t>
+          <t>Transporte Ferroviario de insumos químicos industriales desde Talcahuano a la planta CFI Horcones</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Petroquim S.A.</t>
+          <t>Ferrocarril del Pacifico S. A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26/03/2020</t>
+          <t>25/11/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145937084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149102739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Altos de Hualpén</t>
+          <t>Unidad de regasificación de etileno</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria GPR Hualpén Limitada</t>
+          <t>Petroquim S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>17560</v>
+        <v>2000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>26/03/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145731985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145937084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Condominio Alto Mirador</t>
+          <t>Proyecto Inmobiliario Altos de Hualpén</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Constructora PACAL S.A</t>
+          <t>Inmobiliaria GPR Hualpén Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>14000</v>
+        <v>17560</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02/12/2019</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145047477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145731985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
+          <t>Condominio Alto Mirador</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>comercial poseidon limitada</t>
+          <t>Constructora PACAL S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>14000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27/03/2019</t>
+          <t>02/12/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142770146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145047477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Norte de Punta La Tortuga N° PERT 211081018</t>
+          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>comercial poseidon limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2800</v>
+        <v>25</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>27/03/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142770146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sur de Punta Cullinto N° PERT 211081020</t>
+          <t>Centro de Engorda de Salmonídeos Norte de Punta La Tortuga N° PERT 211081018</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31/07/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Norte de Punta Gualpén N° PERT 211081022</t>
+          <t>Centro de Engorda de Salmonídeos Sur de Punta Cullinto N° PERT 211081020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/07/2018</t>
+          <t>31/07/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140995538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LOTEO MIRADOR DEL ALTO</t>
+          <t>Centro de Engorda de Salmonídeos Norte de Punta Gualpén N° PERT 211081022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Agrícola Agrinama S.A.</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>57000</v>
+        <v>2800</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/06/2018</t>
+          <t>24/07/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140604029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140995538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,30 +1048,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>LOTEO MIRADOR DEL ALTO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Agrícola Agrinama S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9903</v>
+        <v>57000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>08/06/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140604029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,40 +1096,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LOTEO MIRADOR DEL ALTO</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Agrícola Agrinama S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>57000</v>
+        <v>9903</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/04/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138838094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nuevos Sistemas de Tratamiento Ambiental y Mejoramiento de Infraestructura Logística en ERBB</t>
+          <t>LOTEO MIRADOR DEL ALTO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Agrícola Agrinama S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>245000</v>
+        <v>57000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/04/2018</t>
+          <t>10/04/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138838094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DIA Nueva Planta de Isomerización</t>
+          <t>Nuevos Sistemas de Tratamiento Ambiental y Mejoramiento de Infraestructura Logística en ERBB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>131000</v>
+        <v>245000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>04/12/2017</t>
+          <t>05/04/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135994868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CONCESIÓN VIAL PUENTE INDUSTRIAL</t>
+          <t>DIA Nueva Planta de Isomerización</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>180000</v>
+        <v>131000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>04/12/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132578993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135994868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,40 +1288,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>CONCESIÓN VIAL PUENTE INDUSTRIAL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132578993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>45</v>
+        <v>20000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05/05/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Regularización Ambiental Planta de Productos Marinos Hualpén</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>comercial poseidon limitada</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/04/2017</t>
+          <t>05/05/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132259867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
+          <t>"Regularización Ambiental Planta de Productos Marinos Hualpén</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/01/2017</t>
+          <t>10/04/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132031172&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132259867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>comercial poseidon limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>10/01/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132031172&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Concesión Vial Puente Industrial</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>177802</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131695773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131269391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131695773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
+          <t>Concesión Vial Puente Industrial</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>45</v>
+        <v>177802</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/06/2016</t>
+          <t>30/06/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131269391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bodegas Almacenamiento Sustancias Peligrosas de área de abastecimiento</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2600</v>
+        <v>45</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27/02/2015</t>
+          <t>24/06/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130264199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación Gasoducto GLP</t>
+          <t>Bodegas Almacenamiento Sustancias Peligrosas de área de abastecimiento</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sociedad Hualpen Gas S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>120</v>
+        <v>2600</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>27/02/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130264199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATRACADERO DE EMBARCACIONES DEPORTIVAS MENORES RAMUNTCHO, BAHIA DE SAN VICENTE COMUNA DE HUALPEN</t>
+          <t>Ampliación Gasoducto GLP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Agricola Agrinama Ltda</t>
+          <t>Sociedad Hualpen Gas S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AGRICOLA AGRINAMA LTDA</t>
+          <t>Agricola Agrinama Ltda</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/05/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129442732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>29/04/2014</t>
+          <t>07/05/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129442732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ANTENA PARA COBERTURA CELULAR 4G-LTE, SECTOR CALETA CHOME, HUALPÉN</t>
+          <t>ATRACADERO DE EMBARCACIONES DEPORTIVAS MENORES RAMUNTCHO, BAHIA DE SAN VICENTE COMUNA DE HUALPEN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CLARO CHILE S.A.</t>
+          <t>AGRICOLA AGRINAMA LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/04/2014</t>
+          <t>29/04/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129317412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>ANTENA PARA COBERTURA CELULAR 4G-LTE, SECTOR CALETA CHOME, HUALPÉN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CLARO CHILE S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>08/04/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129317412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Estanque de Aguas Ácidas para ERBB</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,16 +2066,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sitio 08-819 Roquerios de Hualpen</t>
+          <t>Estanque de Aguas Ácidas para ERBB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Claro Chile S. A</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>210</v>
+        <v>11000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/10/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128689597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
+          <t>Sitio 08-819 Roquerios de Hualpen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CGE DISTRIBUCION S.A.</t>
+          <t>Claro Chile S. A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1023</v>
+        <v>210</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>16/08/2013</t>
+          <t>24/10/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128472630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128689597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extraccion Mecanizada de Aridos Inmobiliaria Las Tejas</t>
+          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Inmobiliaria Las Tejas Limitada</t>
+          <t>CGE DISTRIBUCION S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>800</v>
+        <v>1023</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/08/2013</t>
+          <t>16/08/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128451546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128472630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Antena Retransmisiones AM Lenga, Comuna Hualpén</t>
+          <t>Extraccion Mecanizada de Aridos Inmobiliaria Las Tejas</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bio Bio Comunicaciones S.A.</t>
+          <t>Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/08/2013</t>
+          <t>13/08/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128421229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128451546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Antena Retransmisiones AM Lenga, Comuna Hualpen</t>
+          <t>Antena Retransmisiones AM Lenga, Comuna Hualpén</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>09/08/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8356332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128421229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Extracción de arena desde el río Biobío, sector Costanera Norte</t>
+          <t>Antena Retransmisiones AM Lenga, Comuna Hualpen</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Juan Carlos Sanhueza Arriagada</t>
+          <t>Bio Bio Comunicaciones S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8306179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8356332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
+          <t>Extracción de arena desde el río Biobío, sector Costanera Norte</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CGE DISTRIBUCION S.A.</t>
+          <t>Juan Carlos Sanhueza Arriagada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1023</v>
+        <v>400</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8184417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8306179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>CGE DISTRIBUCION S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>1023</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>20/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8184417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MARINA RAMUNTCHO</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Agricola Agrinama Ltda</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31/01/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7832655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/01/2013</t>
+          <t>31/01/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7778021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7832655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>MARINA RAMUNTCHO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Agricola Agrinama Ltda</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>706</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>17/01/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7778021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos Inmobiliaria Las Tejas Limitada</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inmobiliaria Las Tejas Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>80</v>
+        <v>706</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>25/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6934969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos - Inmobiliaria Las Tejas Limitada</t>
+          <t>Extracción Mecanizada de Aridos Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/05/2012</t>
+          <t>25/05/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6897473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6934969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Extracción Mecanizada de Aridos - Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>11/05/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6897473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Diversificación de Usos de Petcoke en Refinería de Bio Bio</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6332713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
+          <t>Diversificación de Usos de Petcoke en Refinería de Bio Bio</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Arenas Costanera Bío Bío LTDA.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>29/11/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6320855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6332713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Arenas Costanera Bío Bío LTDA.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>4600</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>29/11/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6320855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,20 +3074,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Arenas Costanera Bío Bío LTDA.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4600</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marina Municipal Caleta Lenga, Bahía de San Vicente</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Arenas Costanera Bío Bío LTDA.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1300</v>
+        <v>4600</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Marina Municipal Caleta Lenga, Bahía de San Vicente</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>319</v>
+        <v>1300</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DIA PROYECTO PORTAL BIOBIO</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>40000</v>
+        <v>319</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PORTAL BIOBIO</t>
+          <t>DIA PROYECTO PORTAL BIOBIO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING CENTERS S.A.</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Extracción de Áridos - Arenera del Pacífico Ltda. Extracción de Áridos - Arenera del Pacífico Ltda.</t>
+          <t>PORTAL BIOBIO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Arenera Vulcano SpA</t>
+          <t>CENCOSUD SHOPPING CENTERS S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5767381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Extracción de Áridos, Arenas Costanera Bío Bío</t>
+          <t>Extracción de Áridos - Arenera del Pacífico Ltda. Extracción de Áridos - Arenera del Pacífico Ltda.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Arenas Costanera Bío Bío LTDA.</t>
+          <t>Arenera Vulcano SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5306830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5767381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11/01/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5228407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5306830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Remodelación y Ampliación del Laboratorio Costero de Lenga - UCSC</t>
+          <t>Extracción de Áridos, Arenas Costanera Bío Bío</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Universidad Católica de la Santísima Concepción</t>
+          <t>Arenas Costanera Bío Bío LTDA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>120</v>
+        <v>4500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>24/11/2010</t>
+          <t>11/01/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5089077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5228407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Remodelación y Ampliación del Laboratorio Costero de Lenga - UCSC</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Universidad Católica de la Santísima Concepción</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>24/11/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5089077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA TRATAMIENTO DE SODA AGOTADA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>12300</v>
+        <v>264</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03/09/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4896848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO PLANTA TRATAMIENTO DE SODA AGOTADA .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>300</v>
+        <v>12300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>03/09/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4896848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HABILITACIÓN DE EMERGENCIA CONECTIVIDAD FLUVIAL RIO BIOBIO</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Concepción</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>24/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4608060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROYECTO JUMBO-EASY HUALPÉN</t>
+          <t>HABILITACIÓN DE EMERGENCIA CONECTIVIDAD FLUVIAL RIO BIOBIO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Gobernación Provincial de Concepción</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>19000</v>
+        <v>1</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>07/05/2010</t>
+          <t>24/05/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4608060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Modificacion Plan Regulador Metropolitano de Concepcion, comuna de Hualpén</t>
+          <t>PROYECTO JUMBO-EASY HUALPÉN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/02/2010</t>
+          <t>07/05/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Modificacion Plan Regulador Metropolitano de Concepcion, comuna de Hualpén</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,12 +3794,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>08/02/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización Restaurant Ecológico La Granja (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sociedad Comercial La Granja y Cía. Ltda.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4098938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Regularización Restaurant Ecológico La Granja (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Comercial La Granja y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>09/10/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4098938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Construcción Costanera Caleta Lenga: Segunda Etapa (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1440</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Costanera Caleta Lenga: Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>22</v>
+        <v>1440</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,16 +4178,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental del Confinamiento de Excedentes de la Construcción TMSV (e-seia)</t>
+          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3506053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Saneamiento Ambiental del Confinamiento de Excedentes de la Construcción TMSV (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3506053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DRAGADO SITIO NORTE DEL TERMINAL MARITIMO SAN VICENTE DE ABASTIBLE S.A. DRAGADO ABASTIBLE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3141971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>DRAGADO SITIO NORTE DEL TERMINAL MARITIMO SAN VICENTE DE ABASTIBLE S.A. DRAGADO ABASTIBLE (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3141971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Extracción de Arenas, Arenera Price Ltda (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Arenera Price Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>15/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,10 +4600,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Parque Eólico Chome</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>Extracción de Arenas, Arenera Price Ltda (e-seia)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -4611,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Energía LLaima SpA</t>
+          <t>Arenera Price Ltda</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10/07/2008</t>
+          <t>15/07/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4629,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3034359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,40 +4648,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Chome</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Energía LLaima SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>15000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>10/07/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3034359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Gestión para el Transporte y Manejo de Residuos Sólidos Peligrosos en Industrias de la VIII Región. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4702,30 +4702,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Emse S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
+          <t>Gestión para el Transporte y Manejo de Residuos Sólidos Peligrosos en Industrias de la VIII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4755,15 +4755,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Emse S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4798,20 +4798,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>429</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4851,25 +4851,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,15 +4899,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,25 +4947,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5003,17 +5003,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Modificación PRMC (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5038,30 +5038,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Modificación PRMC (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5086,20 +5086,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>20/06/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,25 +5139,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,17 +5195,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,40 +5220,40 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Parque Eólicos Altos de Hualpén</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Energías Renovables del Bío Bío S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>26000</v>
+        <v>200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,40 +5268,40 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Parque Eólicos Altos de Hualpén</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Energías Renovables del Bío Bío S.A</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,25 +5331,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PROYECTO AUMENTO CAPACIDAD TOPPING Y VACIONºI, Y UNIDADES ASOCIADAS (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5374,30 +5374,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>36000</v>
+        <v>20</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Enjoy Concepcion Casino &amp; Resort (e-seia)</t>
+          <t>PROYECTO AUMENTO CAPACIDAD TOPPING Y VACIONºI, Y UNIDADES ASOCIADAS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,15 +5427,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Operaciones Casinos del Sur Sociedad Anonima</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>51907</v>
+        <v>36000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>18/08/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1462854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Enjoy Concepcion Casino &amp; Resort (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5470,20 +5470,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Operaciones Casinos del Sur Sociedad Anonima</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>240</v>
+        <v>51907</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1462854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,25 +5523,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4000</v>
+        <v>240</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,17 +5579,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Extracción de áridos Fundo Lo Alfaro (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,30 +5662,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Maquinarias Solar y Cía. Ltda.</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>475</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Extracción de áridos Fundo Lo Alfaro (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,30 +5710,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Maquinarias Solar y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Aumento Capacidad Planta de Polipropileno Petroquim S.A. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,20 +5758,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Claudio Sandoval Aller</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>16/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1112334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,43 +5796,91 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>Aumento Capacidad Planta de Polipropileno Petroquim S.A. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Claudio Sandoval Aller</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>16/11/2005</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1112334&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Hualpén</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>Planta Recuperadora de Dioxido de Carbono (CO2) (e-seia)</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>Indura S.A.</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="F115" t="n">
         <v>7000</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>25/10/2005</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1073282&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>Hualpén</t>
         </is>

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,16 +4178,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,16 +4178,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Ecomac Sur Spa</t>
+          <t>Inmobiliaria y Constructora Ecomac Sur 1 Spa</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/03/2023</t>
+          <t>15/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158800120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158848445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Condominio Alto Mirador</t>
+          <t>Proyecto de integración social DS19 Nativos II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Constructora PACAL S.A</t>
+          <t>Inmobiliaria y Constructora Ecomac Sur Spa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>500</v>
+        <v>18268</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16/09/2021</t>
+          <t>09/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153216190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158800120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción de Arena desde Cauce del Río Biobío - Arenera Price</t>
+          <t>Modificación Condominio Alto Mirador</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Arenera Price SpA.</t>
+          <t>Constructora PACAL S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>16/09/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150832485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153216190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación Extracción de arena desde el río Biobío, sector Costanera Norte</t>
+          <t>Extracción de Arena desde Cauce del Río Biobío - Arenera Price</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juan Carlos Sanhueza Arriagada</t>
+          <t>Arenera Price SpA.</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149562248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150832485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación Condominio Alto Mirador</t>
+          <t>Modificación Extracción de arena desde el río Biobío, sector Costanera Norte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Constructora PACAL S.A</t>
+          <t>Juan Carlos Sanhueza Arriagada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/01/2021</t>
+          <t>08/01/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149557955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149562248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos químicos industriales desde Talcahuano a la planta CFI Horcones</t>
+          <t>Modificación Condominio Alto Mirador</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacifico S. A.</t>
+          <t>Constructora PACAL S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>25/11/2020</t>
+          <t>07/01/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149102739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149557955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unidad de regasificación de etileno</t>
+          <t>Transporte Ferroviario de insumos químicos industriales desde Talcahuano a la planta CFI Horcones</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Petroquim S.A.</t>
+          <t>Ferrocarril del Pacifico S. A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26/03/2020</t>
+          <t>25/11/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145937084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149102739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Altos de Hualpén</t>
+          <t>Unidad de regasificación de etileno</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria GPR Hualpén Limitada</t>
+          <t>Petroquim S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>17560</v>
+        <v>2000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>26/03/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145731985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145937084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Condominio Alto Mirador</t>
+          <t>Proyecto Inmobiliario Altos de Hualpén</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Constructora PACAL S.A</t>
+          <t>Inmobiliaria GPR Hualpén Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>14000</v>
+        <v>17560</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>02/12/2019</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145047477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145731985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
+          <t>Condominio Alto Mirador</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>comercial poseidon limitada</t>
+          <t>Constructora PACAL S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>14000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27/03/2019</t>
+          <t>02/12/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142770146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145047477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Norte de Punta La Tortuga N° PERT 211081018</t>
+          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>comercial poseidon limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2800</v>
+        <v>25</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>27/03/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142770146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sur de Punta Cullinto N° PERT 211081020</t>
+          <t>Centro de Engorda de Salmonídeos Norte de Punta La Tortuga N° PERT 211081018</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31/07/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Norte de Punta Gualpén N° PERT 211081022</t>
+          <t>Centro de Engorda de Salmonídeos Sur de Punta Cullinto N° PERT 211081020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/07/2018</t>
+          <t>31/07/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140995538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LOTEO MIRADOR DEL ALTO</t>
+          <t>Centro de Engorda de Salmonídeos Norte de Punta Gualpén N° PERT 211081022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Agrícola Agrinama S.A.</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>57000</v>
+        <v>2800</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/06/2018</t>
+          <t>24/07/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140604029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140995538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,30 +1096,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>LOTEO MIRADOR DEL ALTO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Agrícola Agrinama S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9903</v>
+        <v>57000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>08/06/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140604029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,40 +1144,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LOTEO MIRADOR DEL ALTO</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Agrícola Agrinama S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>57000</v>
+        <v>9903</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/04/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138838094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nuevos Sistemas de Tratamiento Ambiental y Mejoramiento de Infraestructura Logística en ERBB</t>
+          <t>LOTEO MIRADOR DEL ALTO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Agrícola Agrinama S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>245000</v>
+        <v>57000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05/04/2018</t>
+          <t>10/04/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138838094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DIA Nueva Planta de Isomerización</t>
+          <t>Nuevos Sistemas de Tratamiento Ambiental y Mejoramiento de Infraestructura Logística en ERBB</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>131000</v>
+        <v>245000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>04/12/2017</t>
+          <t>05/04/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135994868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CONCESIÓN VIAL PUENTE INDUSTRIAL</t>
+          <t>DIA Nueva Planta de Isomerización</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>180000</v>
+        <v>131000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>04/12/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132578993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135994868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,40 +1336,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>CONCESIÓN VIAL PUENTE INDUSTRIAL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132578993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>20000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05/05/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Regularización Ambiental Planta de Productos Marinos Hualpén</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>comercial poseidon limitada</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/04/2017</t>
+          <t>05/05/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132259867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
+          <t>"Regularización Ambiental Planta de Productos Marinos Hualpén</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/01/2017</t>
+          <t>10/04/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132031172&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132259867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>comercial poseidon limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>10/01/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132031172&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Concesión Vial Puente Industrial</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>177802</v>
+        <v>10000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131695773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131269391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131695773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
+          <t>Concesión Vial Puente Industrial</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>45</v>
+        <v>177802</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24/06/2016</t>
+          <t>30/06/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131269391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bodegas Almacenamiento Sustancias Peligrosas de área de abastecimiento</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2600</v>
+        <v>45</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>27/02/2015</t>
+          <t>24/06/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130264199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación Gasoducto GLP</t>
+          <t>Bodegas Almacenamiento Sustancias Peligrosas de área de abastecimiento</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad Hualpen Gas S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>120</v>
+        <v>2600</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>27/02/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130264199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATRACADERO DE EMBARCACIONES DEPORTIVAS MENORES RAMUNTCHO, BAHIA DE SAN VICENTE COMUNA DE HUALPEN</t>
+          <t>Ampliación Gasoducto GLP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Agricola Agrinama Ltda</t>
+          <t>Sociedad Hualpen Gas S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AGRICOLA AGRINAMA LTDA</t>
+          <t>Agricola Agrinama Ltda</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07/05/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129442732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>29/04/2014</t>
+          <t>07/05/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129442732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ANTENA PARA COBERTURA CELULAR 4G-LTE, SECTOR CALETA CHOME, HUALPÉN</t>
+          <t>ATRACADERO DE EMBARCACIONES DEPORTIVAS MENORES RAMUNTCHO, BAHIA DE SAN VICENTE COMUNA DE HUALPEN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CLARO CHILE S.A.</t>
+          <t>AGRICOLA AGRINAMA LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/04/2014</t>
+          <t>29/04/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129317412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>ANTENA PARA COBERTURA CELULAR 4G-LTE, SECTOR CALETA CHOME, HUALPÉN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CLARO CHILE S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>08/04/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129317412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Estanque de Aguas Ácidas para ERBB</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sitio 08-819 Roquerios de Hualpen</t>
+          <t>Estanque de Aguas Ácidas para ERBB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Claro Chile S. A</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>210</v>
+        <v>11000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/10/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128689597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
+          <t>Sitio 08-819 Roquerios de Hualpen</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CGE DISTRIBUCION S.A.</t>
+          <t>Claro Chile S. A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1023</v>
+        <v>210</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16/08/2013</t>
+          <t>24/10/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128472630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128689597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Extraccion Mecanizada de Aridos Inmobiliaria Las Tejas</t>
+          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Inmobiliaria Las Tejas Limitada</t>
+          <t>CGE DISTRIBUCION S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>1023</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/08/2013</t>
+          <t>16/08/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128451546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128472630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Antena Retransmisiones AM Lenga, Comuna Hualpén</t>
+          <t>Extraccion Mecanizada de Aridos Inmobiliaria Las Tejas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bio Bio Comunicaciones S.A.</t>
+          <t>Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/08/2013</t>
+          <t>13/08/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128421229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128451546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Antena Retransmisiones AM Lenga, Comuna Hualpen</t>
+          <t>Antena Retransmisiones AM Lenga, Comuna Hualpén</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>09/08/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8356332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128421229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Extracción de arena desde el río Biobío, sector Costanera Norte</t>
+          <t>Antena Retransmisiones AM Lenga, Comuna Hualpen</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Juan Carlos Sanhueza Arriagada</t>
+          <t>Bio Bio Comunicaciones S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8306179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8356332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
+          <t>Extracción de arena desde el río Biobío, sector Costanera Norte</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CGE DISTRIBUCION S.A.</t>
+          <t>Juan Carlos Sanhueza Arriagada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1023</v>
+        <v>400</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8184417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8306179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>CGE DISTRIBUCION S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>1023</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>20/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8184417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MARINA RAMUNTCHO</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Agricola Agrinama Ltda</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>31/01/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7832655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/01/2013</t>
+          <t>31/01/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7778021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7832655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>MARINA RAMUNTCHO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Agricola Agrinama Ltda</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>706</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>17/01/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7778021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos Inmobiliaria Las Tejas Limitada</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inmobiliaria Las Tejas Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>80</v>
+        <v>706</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>25/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6934969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos - Inmobiliaria Las Tejas Limitada</t>
+          <t>Extracción Mecanizada de Aridos Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/05/2012</t>
+          <t>25/05/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6897473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6934969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Extracción Mecanizada de Aridos - Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>11/05/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6897473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Diversificación de Usos de Petcoke en Refinería de Bio Bio</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6332713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
+          <t>Diversificación de Usos de Petcoke en Refinería de Bio Bio</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Arenas Costanera Bío Bío LTDA.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>29/11/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6320855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6332713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Arenas Costanera Bío Bío LTDA.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>4600</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>29/11/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6320855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Arenas Costanera Bío Bío LTDA.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4600</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Marina Municipal Caleta Lenga, Bahía de San Vicente</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Arenas Costanera Bío Bío LTDA.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1300</v>
+        <v>4600</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Marina Municipal Caleta Lenga, Bahía de San Vicente</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>319</v>
+        <v>1300</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DIA PROYECTO PORTAL BIOBIO</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>40000</v>
+        <v>319</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PORTAL BIOBIO</t>
+          <t>DIA PROYECTO PORTAL BIOBIO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING CENTERS S.A.</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Extracción de Áridos - Arenera del Pacífico Ltda. Extracción de Áridos - Arenera del Pacífico Ltda.</t>
+          <t>PORTAL BIOBIO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Arenera Vulcano SpA</t>
+          <t>CENCOSUD SHOPPING CENTERS S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5767381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Extracción de Áridos, Arenas Costanera Bío Bío</t>
+          <t>Extracción de Áridos - Arenera del Pacífico Ltda. Extracción de Áridos - Arenera del Pacífico Ltda.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Arenas Costanera Bío Bío LTDA.</t>
+          <t>Arenera Vulcano SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5306830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5767381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11/01/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5228407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5306830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Remodelación y Ampliación del Laboratorio Costero de Lenga - UCSC</t>
+          <t>Extracción de Áridos, Arenas Costanera Bío Bío</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Universidad Católica de la Santísima Concepción</t>
+          <t>Arenas Costanera Bío Bío LTDA.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>120</v>
+        <v>4500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>24/11/2010</t>
+          <t>11/01/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5089077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5228407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Remodelación y Ampliación del Laboratorio Costero de Lenga - UCSC</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Universidad Católica de la Santísima Concepción</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>24/11/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5089077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA TRATAMIENTO DE SODA AGOTADA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>12300</v>
+        <v>264</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03/09/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4896848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO PLANTA TRATAMIENTO DE SODA AGOTADA .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>12300</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>03/09/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4896848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HABILITACIÓN DE EMERGENCIA CONECTIVIDAD FLUVIAL RIO BIOBIO</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Concepción</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>24/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4608060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROYECTO JUMBO-EASY HUALPÉN</t>
+          <t>HABILITACIÓN DE EMERGENCIA CONECTIVIDAD FLUVIAL RIO BIOBIO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Gobernación Provincial de Concepción</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>19000</v>
+        <v>1</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>07/05/2010</t>
+          <t>24/05/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4608060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Modificacion Plan Regulador Metropolitano de Concepcion, comuna de Hualpén</t>
+          <t>PROYECTO JUMBO-EASY HUALPÉN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/02/2010</t>
+          <t>07/05/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Modificacion Plan Regulador Metropolitano de Concepcion, comuna de Hualpén</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,12 +3842,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>08/02/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización Restaurant Ecológico La Granja (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad Comercial La Granja y Cía. Ltda.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4098938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Regularización Restaurant Ecológico La Granja (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Comercial La Granja y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>09/10/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4098938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Construcción Costanera Caleta Lenga: Segunda Etapa (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1440</v>
+        <v>250</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Costanera Caleta Lenga: Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>22</v>
+        <v>1440</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental del Confinamiento de Excedentes de la Construcción TMSV (e-seia)</t>
+          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3506053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Saneamiento Ambiental del Confinamiento de Excedentes de la Construcción TMSV (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3506053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DRAGADO SITIO NORTE DEL TERMINAL MARITIMO SAN VICENTE DE ABASTIBLE S.A. DRAGADO ABASTIBLE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3141971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>DRAGADO SITIO NORTE DEL TERMINAL MARITIMO SAN VICENTE DE ABASTIBLE S.A. DRAGADO ABASTIBLE (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3141971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Extracción de Arenas, Arenera Price Ltda (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Arenera Price Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>15/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,10 +4648,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Parque Eólico Chome</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>Extracción de Arenas, Arenera Price Ltda (e-seia)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -4659,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Energía LLaima SpA</t>
+          <t>Arenera Price Ltda</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10/07/2008</t>
+          <t>15/07/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4677,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3034359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,40 +4696,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Chome</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Energía LLaima SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>15000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>10/07/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3034359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Gestión para el Transporte y Manejo de Residuos Sólidos Peligrosos en Industrias de la VIII Región. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4750,30 +4750,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Emse S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
+          <t>Gestión para el Transporte y Manejo de Residuos Sólidos Peligrosos en Industrias de la VIII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,15 +4803,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Emse S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4846,20 +4846,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>429</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,25 +4899,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,15 +4947,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,25 +4995,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5051,17 +5051,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Modificación PRMC (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5086,30 +5086,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Modificación PRMC (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5134,20 +5134,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>20/06/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,25 +5187,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,17 +5243,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,40 +5268,40 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Parque Eólicos Altos de Hualpén</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Energías Renovables del Bío Bío S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>26000</v>
+        <v>200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,40 +5316,40 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Parque Eólicos Altos de Hualpén</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Energías Renovables del Bío Bío S.A</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,25 +5379,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PROYECTO AUMENTO CAPACIDAD TOPPING Y VACIONºI, Y UNIDADES ASOCIADAS (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5422,30 +5422,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>36000</v>
+        <v>20</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Enjoy Concepcion Casino &amp; Resort (e-seia)</t>
+          <t>PROYECTO AUMENTO CAPACIDAD TOPPING Y VACIONºI, Y UNIDADES ASOCIADAS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,15 +5475,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Operaciones Casinos del Sur Sociedad Anonima</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>51907</v>
+        <v>36000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>18/08/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1462854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Enjoy Concepcion Casino &amp; Resort (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,20 +5518,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Operaciones Casinos del Sur Sociedad Anonima</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>240</v>
+        <v>51907</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1462854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,25 +5571,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4000</v>
+        <v>240</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,17 +5627,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Extracción de áridos Fundo Lo Alfaro (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,30 +5710,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Maquinarias Solar y Cía. Ltda.</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>475</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Extracción de áridos Fundo Lo Alfaro (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,30 +5758,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Maquinarias Solar y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Aumento Capacidad Planta de Polipropileno Petroquim S.A. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,20 +5806,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Claudio Sandoval Aller</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>16/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1112334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,43 +5844,91 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>Aumento Capacidad Planta de Polipropileno Petroquim S.A. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Claudio Sandoval Aller</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>16/11/2005</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1112334&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Hualpén</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>Planta Recuperadora de Dioxido de Carbono (CO2) (e-seia)</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>Indura S.A.</t>
         </is>
       </c>
-      <c r="F115" t="n">
+      <c r="F116" t="n">
         <v>7000</v>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>25/10/2005</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1073282&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>Hualpén</t>
         </is>

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/03/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto de integración social DS19 Nativos II</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Ecomac Sur 1 Spa</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18268</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2023</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158848445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Ecomac Sur Spa</t>
+          <t>Inmobiliaria y Constructora Ecomac Sur 1 Spa</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/03/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158800120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158848445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Condominio Alto Mirador</t>
+          <t>Proyecto de integración social DS19 Nativos II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Constructora PACAL S.A</t>
+          <t>Inmobiliaria y Constructora Ecomac Sur Spa</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>500</v>
+        <v>18268</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16/09/2021</t>
+          <t>09/03/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153216190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158800120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción de Arena desde Cauce del Río Biobío - Arenera Price</t>
+          <t>Modificación Condominio Alto Mirador</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Arenera Price SpA.</t>
+          <t>Constructora PACAL S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>16/09/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150832485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153216190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación Extracción de arena desde el río Biobío, sector Costanera Norte</t>
+          <t>Extracción de Arena desde Cauce del Río Biobío - Arenera Price</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Juan Carlos Sanhueza Arriagada</t>
+          <t>Arenera Price SpA.</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149562248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150832485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación Condominio Alto Mirador</t>
+          <t>Modificación Extracción de arena desde el río Biobío, sector Costanera Norte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Constructora PACAL S.A</t>
+          <t>Juan Carlos Sanhueza Arriagada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/01/2021</t>
+          <t>08/01/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149557955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149562248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos químicos industriales desde Talcahuano a la planta CFI Horcones</t>
+          <t>Modificación Condominio Alto Mirador</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacifico S. A.</t>
+          <t>Constructora PACAL S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>25/11/2020</t>
+          <t>07/01/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149102739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149557955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Unidad de regasificación de etileno</t>
+          <t>Transporte Ferroviario de insumos químicos industriales desde Talcahuano a la planta CFI Horcones</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Petroquim S.A.</t>
+          <t>Ferrocarril del Pacifico S. A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26/03/2020</t>
+          <t>25/11/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145937084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149102739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Altos de Hualpén</t>
+          <t>Unidad de regasificación de etileno</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria GPR Hualpén Limitada</t>
+          <t>Petroquim S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>17560</v>
+        <v>2000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>26/03/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145731985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145937084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Condominio Alto Mirador</t>
+          <t>Proyecto Inmobiliario Altos de Hualpén</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Constructora PACAL S.A</t>
+          <t>Inmobiliaria GPR Hualpén Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14000</v>
+        <v>17560</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/12/2019</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145047477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145731985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
+          <t>Condominio Alto Mirador</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>comercial poseidon limitada</t>
+          <t>Constructora PACAL S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>14000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/03/2019</t>
+          <t>02/12/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142770146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145047477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Norte de Punta La Tortuga N° PERT 211081018</t>
+          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>comercial poseidon limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2800</v>
+        <v>25</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>27/03/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142770146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sur de Punta Cullinto N° PERT 211081020</t>
+          <t>Centro de Engorda de Salmonídeos Norte de Punta La Tortuga N° PERT 211081018</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>31/07/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Norte de Punta Gualpén N° PERT 211081022</t>
+          <t>Centro de Engorda de Salmonídeos Sur de Punta Cullinto N° PERT 211081020</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/07/2018</t>
+          <t>31/07/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140995538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141036373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LOTEO MIRADOR DEL ALTO</t>
+          <t>Centro de Engorda de Salmonídeos Norte de Punta Gualpén N° PERT 211081022</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Agrícola Agrinama S.A.</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>57000</v>
+        <v>2800</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/06/2018</t>
+          <t>24/07/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140604029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140995538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,30 +1144,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>LOTEO MIRADOR DEL ALTO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Agrícola Agrinama S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>9903</v>
+        <v>57000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>08/06/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140604029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,40 +1192,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LOTEO MIRADOR DEL ALTO</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Agrícola Agrinama S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>57000</v>
+        <v>9903</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/04/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138838094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nuevos Sistemas de Tratamiento Ambiental y Mejoramiento de Infraestructura Logística en ERBB</t>
+          <t>LOTEO MIRADOR DEL ALTO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Agrícola Agrinama S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>245000</v>
+        <v>57000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05/04/2018</t>
+          <t>10/04/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138838094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DIA Nueva Planta de Isomerización</t>
+          <t>Nuevos Sistemas de Tratamiento Ambiental y Mejoramiento de Infraestructura Logística en ERBB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>131000</v>
+        <v>245000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04/12/2017</t>
+          <t>05/04/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135994868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CONCESIÓN VIAL PUENTE INDUSTRIAL</t>
+          <t>DIA Nueva Planta de Isomerización</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>180000</v>
+        <v>131000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>04/12/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132578993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135994868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,40 +1384,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>CONCESIÓN VIAL PUENTE INDUSTRIAL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132578993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>20000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/05/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Regularización Ambiental Planta de Productos Marinos Hualpén</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>comercial poseidon limitada</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/04/2017</t>
+          <t>05/05/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132259867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
+          <t>"Regularización Ambiental Planta de Productos Marinos Hualpén</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/01/2017</t>
+          <t>10/04/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132031172&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132259867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Regularización Ambiental Planta de Productos Marinos Hualpén</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>comercial poseidon limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>10/01/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132031172&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Concesión Vial Puente Industrial</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>177802</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131695773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131269391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131695773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
+          <t>Concesión Vial Puente Industrial</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Sociedad Concesionaria Puente Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>45</v>
+        <v>177802</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/06/2016</t>
+          <t>30/06/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131269391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bodegas Almacenamiento Sustancias Peligrosas de área de abastecimiento</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZB347 - Chome</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2600</v>
+        <v>45</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/02/2015</t>
+          <t>24/06/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130264199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131506702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación Gasoducto GLP</t>
+          <t>Bodegas Almacenamiento Sustancias Peligrosas de área de abastecimiento</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad Hualpen Gas S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>120</v>
+        <v>2600</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>27/02/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130264199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ATRACADERO DE EMBARCACIONES DEPORTIVAS MENORES RAMUNTCHO, BAHIA DE SAN VICENTE COMUNA DE HUALPEN</t>
+          <t>Ampliación Gasoducto GLP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Agricola Agrinama Ltda</t>
+          <t>Sociedad Hualpen Gas S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AGRICOLA AGRINAMA LTDA</t>
+          <t>Agricola Agrinama Ltda</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07/05/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129442732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>29/04/2014</t>
+          <t>07/05/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129442732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ANTENA PARA COBERTURA CELULAR 4G-LTE, SECTOR CALETA CHOME, HUALPÉN</t>
+          <t>ATRACADERO DE EMBARCACIONES DEPORTIVAS MENORES RAMUNTCHO, BAHIA DE SAN VICENTE COMUNA DE HUALPEN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CLARO CHILE S.A.</t>
+          <t>AGRICOLA AGRINAMA LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/04/2014</t>
+          <t>29/04/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129317412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>ANTENA PARA COBERTURA CELULAR 4G-LTE, SECTOR CALETA CHOME, HUALPÉN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CLARO CHILE S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>08/04/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129317412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Estanque de Aguas Ácidas para ERBB</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sitio 08-819 Roquerios de Hualpen</t>
+          <t>Estanque de Aguas Ácidas para ERBB</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Claro Chile S. A</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>210</v>
+        <v>11000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>24/10/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128689597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
+          <t>Sitio 08-819 Roquerios de Hualpen</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CGE DISTRIBUCION S.A.</t>
+          <t>Claro Chile S. A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1023</v>
+        <v>210</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16/08/2013</t>
+          <t>24/10/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128472630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128689597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Extraccion Mecanizada de Aridos Inmobiliaria Las Tejas</t>
+          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Inmobiliaria Las Tejas Limitada</t>
+          <t>CGE DISTRIBUCION S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>1023</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/08/2013</t>
+          <t>16/08/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128451546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128472630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Antena Retransmisiones AM Lenga, Comuna Hualpén</t>
+          <t>Extraccion Mecanizada de Aridos Inmobiliaria Las Tejas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bio Bio Comunicaciones S.A.</t>
+          <t>Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/08/2013</t>
+          <t>13/08/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128421229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128451546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Antena Retransmisiones AM Lenga, Comuna Hualpen</t>
+          <t>Antena Retransmisiones AM Lenga, Comuna Hualpén</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>09/08/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8356332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128421229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Extracción de arena desde el río Biobío, sector Costanera Norte</t>
+          <t>Antena Retransmisiones AM Lenga, Comuna Hualpen</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Juan Carlos Sanhueza Arriagada</t>
+          <t>Bio Bio Comunicaciones S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8306179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8356332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
+          <t>Extracción de arena desde el río Biobío, sector Costanera Norte</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CGE DISTRIBUCION S.A.</t>
+          <t>Juan Carlos Sanhueza Arriagada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1023</v>
+        <v>400</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8184417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8306179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Obras de Adecuación Línea de Distribución de 15 kV en Santuario de la Naturaleza Península de Hualpén</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>CGE DISTRIBUCION S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>1023</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>20/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8184417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MARINA RAMUNTCHO</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Agricola Agrinama Ltda</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31/01/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7832655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/01/2013</t>
+          <t>31/01/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7778021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7832655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>MARINA RAMUNTCHO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Agricola Agrinama Ltda</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>706</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>17/01/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7778021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos Inmobiliaria Las Tejas Limitada</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inmobiliaria Las Tejas Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>80</v>
+        <v>706</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>25/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6934969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Aridos - Inmobiliaria Las Tejas Limitada</t>
+          <t>Extracción Mecanizada de Aridos Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/05/2012</t>
+          <t>25/05/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6897473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6934969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Extracción Mecanizada de Aridos - Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Inmobiliaria Las Tejas Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>11/05/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6897473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Diversificación de Usos de Petcoke en Refinería de Bio Bio</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6332713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
+          <t>Diversificación de Usos de Petcoke en Refinería de Bio Bio</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Arenas Costanera Bío Bío LTDA.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>29/11/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6320855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6332713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Arenas Costanera Bío Bío LTDA.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>4600</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>29/11/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6320855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Arenas Costanera Bío Bío LTDA.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4600</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Marina Municipal Caleta Lenga, Bahía de San Vicente</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "EXTRACCIÓN DE ARENAS, RIBERA NORTE, ARENAS COSTANERA BIOBIO."</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Arenas Costanera Bío Bío LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1300</v>
+        <v>4600</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Marina Municipal Caleta Lenga, Bahía de San Vicente</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>319</v>
+        <v>1300</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DIA PROYECTO PORTAL BIOBIO</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>40000</v>
+        <v>319</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PORTAL BIOBIO</t>
+          <t>DIA PROYECTO PORTAL BIOBIO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CENCOSUD SHOPPING CENTERS S.A.</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Extracción de Áridos - Arenera del Pacífico Ltda. Extracción de Áridos - Arenera del Pacífico Ltda.</t>
+          <t>PORTAL BIOBIO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Arenera Vulcano SpA</t>
+          <t>CENCOSUD SHOPPING CENTERS S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5767381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Extracción de Áridos, Arenas Costanera Bío Bío</t>
+          <t>Extracción de Áridos - Arenera del Pacífico Ltda. Extracción de Áridos - Arenera del Pacífico Ltda.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Arenas Costanera Bío Bío LTDA.</t>
+          <t>Arenera Vulcano SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5306830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5767381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11/01/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5228407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5306830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Remodelación y Ampliación del Laboratorio Costero de Lenga - UCSC</t>
+          <t>Extracción de Áridos, Arenas Costanera Bío Bío</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Universidad Católica de la Santísima Concepción</t>
+          <t>Arenas Costanera Bío Bío LTDA.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>120</v>
+        <v>4500</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>24/11/2010</t>
+          <t>11/01/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5089077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5228407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Remodelación y Ampliación del Laboratorio Costero de Lenga - UCSC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Universidad Católica de la Santísima Concepción</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>24/11/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5089077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA TRATAMIENTO DE SODA AGOTADA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>12300</v>
+        <v>264</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03/09/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4896848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO PLANTA TRATAMIENTO DE SODA AGOTADA .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>12300</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>03/09/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4896848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HABILITACIÓN DE EMERGENCIA CONECTIVIDAD FLUVIAL RIO BIOBIO</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Concepción</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4608060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROYECTO JUMBO-EASY HUALPÉN</t>
+          <t>HABILITACIÓN DE EMERGENCIA CONECTIVIDAD FLUVIAL RIO BIOBIO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>Gobernación Provincial de Concepción</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>19000</v>
+        <v>1</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07/05/2010</t>
+          <t>24/05/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4608060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Modificacion Plan Regulador Metropolitano de Concepcion, comuna de Hualpén</t>
+          <t>PROYECTO JUMBO-EASY HUALPÉN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Cencosud Shopping Centers S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/02/2010</t>
+          <t>07/05/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Modificacion Plan Regulador Metropolitano de Concepcion, comuna de Hualpén</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>08/02/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Regularización Restaurant Ecológico La Granja (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad Comercial La Granja y Cía. Ltda.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4098938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Regularización Restaurant Ecológico La Granja (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Comercial La Granja y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>09/10/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4098938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Construcción Costanera Caleta Lenga: Segunda Etapa (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1440</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Costanera Caleta Lenga: Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>22</v>
+        <v>1440</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental del Confinamiento de Excedentes de la Construcción TMSV (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3506053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Saneamiento Ambiental del Confinamiento de Excedentes de la Construcción TMSV (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3506053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DRAGADO SITIO NORTE DEL TERMINAL MARITIMO SAN VICENTE DE ABASTIBLE S.A. DRAGADO ABASTIBLE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3141971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>DRAGADO SITIO NORTE DEL TERMINAL MARITIMO SAN VICENTE DE ABASTIBLE S.A. DRAGADO ABASTIBLE (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3141971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Extracción de Arenas, Arenera Price Ltda (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Arenera Price Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,10 +4696,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Parque Eólico Chome</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>Extracción de Arenas, Arenera Price Ltda (e-seia)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -4707,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Energía LLaima SpA</t>
+          <t>Arenera Price Ltda</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10/07/2008</t>
+          <t>15/07/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4725,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3034359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,40 +4744,36 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Chome</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Energía LLaima SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>15000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>10/07/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3034359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gestión para el Transporte y Manejo de Residuos Sólidos Peligrosos en Industrias de la VIII Región. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4798,30 +4798,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Emse S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
+          <t>Gestión para el Transporte y Manejo de Residuos Sólidos Peligrosos en Industrias de la VIII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4851,15 +4851,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Emse S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2757098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4894,20 +4894,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>429</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,25 +4947,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,15 +4995,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,25 +5043,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,17 +5099,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Modificación PRMC (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5134,30 +5134,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Modificación PRMC (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5182,20 +5182,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>20/06/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,25 +5235,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,17 +5291,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,40 +5316,40 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Parque Eólicos Altos de Hualpén</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Energías Renovables del Bío Bío S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>26000</v>
+        <v>200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,40 +5364,40 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Parque Eólicos Altos de Hualpén</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Energías Renovables del Bío Bío S.A</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,25 +5427,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PROYECTO AUMENTO CAPACIDAD TOPPING Y VACIONºI, Y UNIDADES ASOCIADAS (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5470,30 +5470,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>36000</v>
+        <v>20</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>18/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Enjoy Concepcion Casino &amp; Resort (e-seia)</t>
+          <t>PROYECTO AUMENTO CAPACIDAD TOPPING Y VACIONºI, Y UNIDADES ASOCIADAS (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Operaciones Casinos del Sur Sociedad Anonima</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>51907</v>
+        <v>36000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>18/08/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1462854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Enjoy Concepcion Casino &amp; Resort (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,20 +5566,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Operaciones Casinos del Sur Sociedad Anonima</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>240</v>
+        <v>51907</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1462854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4000</v>
+        <v>240</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,17 +5675,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Extracción de áridos Fundo Lo Alfaro (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,30 +5758,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Maquinarias Solar y Cía. Ltda.</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>475</v>
+        <v>200</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Extracción de áridos Fundo Lo Alfaro (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,30 +5806,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Maquinarias Solar y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Aumento Capacidad Planta de Polipropileno Petroquim S.A. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,20 +5854,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Claudio Sandoval Aller</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>16/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1112334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,43 +5892,91 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>Aumento Capacidad Planta de Polipropileno Petroquim S.A. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Claudio Sandoval Aller</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>16/11/2005</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1112334&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Hualpén</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>Planta Recuperadora de Dioxido de Carbono (CO2) (e-seia)</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>Indura S.A.</t>
         </is>
       </c>
-      <c r="F116" t="n">
+      <c r="F117" t="n">
         <v>7000</v>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>25/10/2005</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1073282&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>Hualpén</t>
         </is>

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">

--- a/data/Hualpén.xlsx
+++ b/data/Hualpén.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Hualpén</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Construccion Costanera Caleta Lenga 2 parte (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ilustre Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3555919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
